--- a/test_files/mcE72_PD14_Figueres_Proteins.xlsx
+++ b/test_files/mcE72_PD14_Figueres_Proteins.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1005" yWindow="1005" windowWidth="15000" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -411,9 +412,6 @@
     <t>P02789</t>
   </si>
   <si>
-    <t>P04745</t>
-  </si>
-  <si>
     <t>P04746</t>
   </si>
   <si>
@@ -796,16 +794,19 @@
   </si>
   <si>
     <t>calc. pI</t>
+  </si>
+  <si>
+    <t>P0DUB6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -885,32 +886,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" xfId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" xfId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="164">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -979,6 +982,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1266,16 +1274,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -1287,7 +1296,7 @@
     <col min="10" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1295,7 +1304,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>58</v>
@@ -1319,12 +1328,12 @@
         <v>90</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1351,13 +1360,13 @@
         <v>615</v>
       </c>
       <c r="J2" s="6">
-        <v>69.87194734466</v>
+        <v>69.871947344660001</v>
       </c>
       <c r="K2" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>110</v>
       </c>
       <c r="C3" s="3">
-        <v>553.478559732437</v>
+        <v>553.47855973243702</v>
       </c>
       <c r="D3" s="4">
         <v>41.19</v>
@@ -1386,21 +1395,21 @@
         <v>386</v>
       </c>
       <c r="J3" s="6">
-        <v>42.8535052046601</v>
+        <v>42.853505204660102</v>
       </c>
       <c r="K3" s="3">
         <v>5.28759765625</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3">
-        <v>256.418736457825</v>
+        <v>256.41873645782499</v>
       </c>
       <c r="D4" s="4">
         <v>51.47</v>
@@ -1427,15 +1436,15 @@
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3">
-        <v>233.275096178055</v>
+        <v>233.27509617805501</v>
       </c>
       <c r="D5" s="4">
         <v>47.95</v>
@@ -1456,15 +1465,15 @@
         <v>511</v>
       </c>
       <c r="J5" s="6">
-        <v>57.7309150246601</v>
+        <v>57.730915024660099</v>
       </c>
       <c r="K5" s="3">
         <v>6.93212890625</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
@@ -1491,13 +1500,13 @@
         <v>511</v>
       </c>
       <c r="J6" s="6">
-        <v>57.6730113146601</v>
+        <v>57.673011314660101</v>
       </c>
       <c r="K6" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>84.0828883647919</v>
+        <v>84.082888364791899</v>
       </c>
       <c r="D7" s="4">
         <v>35.58</v>
@@ -1526,13 +1535,13 @@
         <v>607</v>
       </c>
       <c r="J7" s="6">
-        <v>69.24844375466</v>
+        <v>69.248443754660002</v>
       </c>
       <c r="K7" s="3">
         <v>6.17626953125</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>129</v>
       </c>
@@ -1540,10 +1549,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="3">
-        <v>76.9729690551758</v>
+        <v>76.972969055175795</v>
       </c>
       <c r="D8" s="4">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
@@ -1561,21 +1570,21 @@
         <v>609</v>
       </c>
       <c r="J8" s="6">
-        <v>69.32149882466</v>
+        <v>69.321498824659997</v>
       </c>
       <c r="K8" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="3">
-        <v>71.7547609806061</v>
+        <v>71.754760980606093</v>
       </c>
       <c r="D9" s="4">
         <v>9.6</v>
@@ -1602,7 +1611,7 @@
         <v>5.33837890625</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>107</v>
       </c>
@@ -1610,7 +1619,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="3">
-        <v>62.5006241798401</v>
+        <v>62.500624179840102</v>
       </c>
       <c r="D10" s="4">
         <v>11.95</v>
@@ -1637,7 +1646,7 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>131</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="3">
-        <v>60.8880341053009</v>
+        <v>60.888034105300903</v>
       </c>
       <c r="D11" s="4">
         <v>21.99</v>
@@ -1672,15 +1681,15 @@
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C12" s="3">
-        <v>63.3959050178528</v>
+        <v>63.395905017852797</v>
       </c>
       <c r="D12" s="4">
         <v>51.41</v>
@@ -1707,15 +1716,15 @@
         <v>6.91748046875</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="3">
-        <v>51.2621502876282</v>
+        <v>51.262150287628202</v>
       </c>
       <c r="D13" s="4">
         <v>40.32</v>
@@ -1736,21 +1745,21 @@
         <v>248</v>
       </c>
       <c r="J13" s="6">
-        <v>26.71288245466</v>
+        <v>26.712882454660001</v>
       </c>
       <c r="K13" s="3">
         <v>7.45947265625</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="3">
-        <v>50.1600995063782</v>
+        <v>50.160099506378202</v>
       </c>
       <c r="D14" s="4">
         <v>39.11</v>
@@ -1771,21 +1780,21 @@
         <v>248</v>
       </c>
       <c r="J14" s="6">
-        <v>26.60378205466</v>
+        <v>26.603782054660002</v>
       </c>
       <c r="K14" s="3">
         <v>7.19580078125</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="3">
-        <v>41.2028608322144</v>
+        <v>41.202860832214398</v>
       </c>
       <c r="D15" s="4">
         <v>34.11</v>
@@ -1806,21 +1815,21 @@
         <v>214</v>
       </c>
       <c r="J15" s="6">
-        <v>23.36442023466</v>
+        <v>23.364420234659999</v>
       </c>
       <c r="K15" s="3">
         <v>7.16650390625</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3">
-        <v>35.0233945846558</v>
+        <v>35.023394584655797</v>
       </c>
       <c r="D16" s="4">
         <v>6.6</v>
@@ -1841,24 +1850,24 @@
         <v>1304</v>
       </c>
       <c r="J16" s="6">
-        <v>149.27553941466</v>
+        <v>149.27553941465999</v>
       </c>
       <c r="K16" s="3">
         <v>6.29052734375</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3">
-        <v>37.9066593647003</v>
+        <v>37.906659364700303</v>
       </c>
       <c r="D17" s="4">
-        <v>19.44</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="E17" s="5">
         <v>3</v>
@@ -1876,13 +1885,13 @@
         <v>607</v>
       </c>
       <c r="J17" s="6">
-        <v>69.14334366466</v>
+        <v>69.143343664659994</v>
       </c>
       <c r="K17" s="3">
         <v>6.15087890625</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>121</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>5.59228515625</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>126</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>79</v>
       </c>
       <c r="C19" s="3">
-        <v>30.9941530227661</v>
+        <v>30.994153022766099</v>
       </c>
       <c r="D19" s="4">
         <v>24.08</v>
@@ -1946,24 +1955,24 @@
         <v>353</v>
       </c>
       <c r="J19" s="6">
-        <v>37.63064002466</v>
+        <v>37.630640024660003</v>
       </c>
       <c r="K19" s="3">
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="3">
-        <v>32.0844366550446</v>
+        <v>32.084436655044598</v>
       </c>
       <c r="D20" s="4">
-        <v>17.19</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1981,15 +1990,15 @@
         <v>704</v>
       </c>
       <c r="J20" s="6">
-        <v>77.70274272466</v>
+        <v>77.702742724659998</v>
       </c>
       <c r="K20" s="3">
         <v>7.07861328125</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -2022,15 +2031,15 @@
         <v>5.47802734375</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="3">
-        <v>27.5659537315369</v>
+        <v>27.565953731536901</v>
       </c>
       <c r="D22" s="4">
         <v>15.34</v>
@@ -2051,21 +2060,21 @@
         <v>528</v>
       </c>
       <c r="J22" s="6">
-        <v>56.7764174946601</v>
+        <v>56.776417494660102</v>
       </c>
       <c r="K22" s="3">
         <v>5.85888671875</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="3">
-        <v>23.0660758018494</v>
+        <v>23.066075801849401</v>
       </c>
       <c r="D23" s="4">
         <v>25.81</v>
@@ -2086,24 +2095,24 @@
         <v>434</v>
       </c>
       <c r="J23" s="6">
-        <v>47.10043245466</v>
+        <v>47.100432454660002</v>
       </c>
       <c r="K23" s="3">
         <v>7.95751953125</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3">
-        <v>21.747296333313</v>
+        <v>21.747296333312999</v>
       </c>
       <c r="D24" s="4">
-        <v>17.42</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2121,15 +2130,15 @@
         <v>419</v>
       </c>
       <c r="J24" s="6">
-        <v>47.11078190466</v>
+        <v>47.110781904660001</v>
       </c>
       <c r="K24" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>82</v>
@@ -2162,15 +2171,15 @@
         <v>7.23974609375</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="3">
-        <v>23.2729303836823</v>
+        <v>23.272930383682301</v>
       </c>
       <c r="D26" s="4">
         <v>11.86</v>
@@ -2191,21 +2200,21 @@
         <v>607</v>
       </c>
       <c r="J26" s="6">
-        <v>69.64705372466</v>
+        <v>69.647053724659997</v>
       </c>
       <c r="K26" s="3">
         <v>6.49365234375</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="3">
-        <v>20.3911933898926</v>
+        <v>20.391193389892599</v>
       </c>
       <c r="D27" s="4">
         <v>6.58</v>
@@ -2232,7 +2241,7 @@
         <v>6.23974609375</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="3">
-        <v>20.9213907718658</v>
+        <v>20.921390771865799</v>
       </c>
       <c r="D28" s="4">
         <v>20.88</v>
@@ -2261,13 +2270,13 @@
         <v>340</v>
       </c>
       <c r="J28" s="6">
-        <v>36.29860081466</v>
+        <v>36.298600814659999</v>
       </c>
       <c r="K28" s="3">
         <v>8.79248046875</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>117</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>17.1390500068665</v>
+        <v>17.139050006866501</v>
       </c>
       <c r="D29" s="4">
         <v>11.49</v>
@@ -2296,21 +2305,21 @@
         <v>261</v>
       </c>
       <c r="J29" s="6">
-        <v>28.85238934466</v>
+        <v>28.852389344660001</v>
       </c>
       <c r="K29" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="3">
-        <v>19.0442988872528</v>
+        <v>19.044298887252801</v>
       </c>
       <c r="D30" s="4">
         <v>11.13</v>
@@ -2331,21 +2340,21 @@
         <v>764</v>
       </c>
       <c r="J30" s="6">
-        <v>83.2316563046601</v>
+        <v>83.231656304660106</v>
       </c>
       <c r="K30" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="3">
-        <v>18.9228444099426</v>
+        <v>18.922844409942599</v>
       </c>
       <c r="D31" s="4">
         <v>14.17</v>
@@ -2366,21 +2375,21 @@
         <v>247</v>
       </c>
       <c r="J31" s="6">
-        <v>26.47103543466</v>
+        <v>26.471035434659999</v>
       </c>
       <c r="K31" s="3">
         <v>4.91943359375</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="3">
-        <v>16.7385082244873</v>
+        <v>16.738508224487301</v>
       </c>
       <c r="D32" s="4">
         <v>11.07</v>
@@ -2407,15 +2416,15 @@
         <v>6.04931640625</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="3">
-        <v>17.306770324707</v>
+        <v>17.306770324706999</v>
       </c>
       <c r="D33" s="4">
         <v>5.38</v>
@@ -2436,21 +2445,21 @@
         <v>558</v>
       </c>
       <c r="J33" s="6">
-        <v>62.72718006466</v>
+        <v>62.727180064659997</v>
       </c>
       <c r="K33" s="3">
         <v>8.13330078125</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" s="3">
-        <v>16.8089110851288</v>
+        <v>16.808911085128798</v>
       </c>
       <c r="D34" s="4">
         <v>8.19</v>
@@ -2471,18 +2480,18 @@
         <v>696</v>
       </c>
       <c r="J34" s="6">
-        <v>76.91846236466</v>
+        <v>76.918462364660002</v>
       </c>
       <c r="K34" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35" s="3">
         <v>13.450982093811</v>
@@ -2512,15 +2521,15 @@
         <v>6.25244140625</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="3">
-        <v>12.1789057254791</v>
+        <v>12.178905725479099</v>
       </c>
       <c r="D36" s="4">
         <v>4.26</v>
@@ -2541,24 +2550,24 @@
         <v>845</v>
       </c>
       <c r="J36" s="6">
-        <v>88.1686771246603</v>
+        <v>88.168677124660306</v>
       </c>
       <c r="K36" s="3">
         <v>4.93212890625</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="3">
-        <v>15.1125926971436</v>
+        <v>15.112592697143601</v>
       </c>
       <c r="D37" s="4">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -2576,21 +2585,21 @@
         <v>702</v>
       </c>
       <c r="J37" s="6">
-        <v>76.7472299646601</v>
+        <v>76.747229964660093</v>
       </c>
       <c r="K37" s="3">
         <v>5.92236328125</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="3">
-        <v>14.1824505329132</v>
+        <v>14.182450532913199</v>
       </c>
       <c r="D38" s="4">
         <v>10.02</v>
@@ -2611,15 +2620,15 @@
         <v>639</v>
       </c>
       <c r="J38" s="6">
-        <v>65.3932203446601</v>
+        <v>65.393220344660094</v>
       </c>
       <c r="K38" s="3">
         <v>8.00146484375</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>96</v>
@@ -2646,21 +2655,21 @@
         <v>5179</v>
       </c>
       <c r="J39" s="6">
-        <v>539.958365874683</v>
+        <v>539.95836587468295</v>
       </c>
       <c r="K39" s="3">
         <v>5.79541015625</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="3">
-        <v>14.5304610729218</v>
+        <v>14.530461072921799</v>
       </c>
       <c r="D40" s="4">
         <v>10.47</v>
@@ -2681,24 +2690,24 @@
         <v>640</v>
       </c>
       <c r="J40" s="6">
-        <v>69.7143775546601</v>
+        <v>69.714377554660103</v>
       </c>
       <c r="K40" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C41" s="3">
-        <v>14.5400419235229</v>
+        <v>14.540041923522899</v>
       </c>
       <c r="D41" s="4">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="E41" s="5">
         <v>2</v>
@@ -2716,15 +2725,15 @@
         <v>608</v>
       </c>
       <c r="J41" s="6">
-        <v>68.61494624466</v>
+        <v>68.614946244660004</v>
       </c>
       <c r="K41" s="3">
         <v>5.65576171875</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>19</v>
@@ -2751,13 +2760,13 @@
         <v>172</v>
       </c>
       <c r="J42" s="6">
-        <v>19.54776050466</v>
+        <v>19.547760504660001</v>
       </c>
       <c r="K42" s="3">
         <v>4.70361328125</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="3">
-        <v>13.2366852760315</v>
+        <v>13.236685276031499</v>
       </c>
       <c r="D43" s="4">
         <v>6.17</v>
@@ -2792,7 +2801,7 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>118</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>49</v>
       </c>
       <c r="C44" s="3">
-        <v>13.2663531303406</v>
+        <v>13.266353130340599</v>
       </c>
       <c r="D44" s="4">
         <v>16.54</v>
@@ -2821,15 +2830,15 @@
         <v>260</v>
       </c>
       <c r="J44" s="6">
-        <v>29.09571387466</v>
+        <v>29.095713874659999</v>
       </c>
       <c r="K44" s="3">
         <v>6.91748046875</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>72</v>
@@ -2856,13 +2865,13 @@
         <v>220</v>
       </c>
       <c r="J45" s="6">
-        <v>25.87617045466</v>
+        <v>25.876170454659999</v>
       </c>
       <c r="K45" s="3">
         <v>7.32763671875</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -2891,21 +2900,21 @@
         <v>381</v>
       </c>
       <c r="J46" s="6">
-        <v>43.30097424466</v>
+        <v>43.300974244659997</v>
       </c>
       <c r="K46" s="3">
         <v>6.99072265625</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C47" s="3">
-        <v>14.4180977344513</v>
+        <v>14.418097734451299</v>
       </c>
       <c r="D47" s="4">
         <v>5.79</v>
@@ -2932,12 +2941,12 @@
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="3">
         <v>14.0662817955017</v>
@@ -2961,21 +2970,21 @@
         <v>269</v>
       </c>
       <c r="J48" s="6">
-        <v>26.68241059466</v>
+        <v>26.682410594659999</v>
       </c>
       <c r="K48" s="3">
         <v>9.30517578125</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="3">
-        <v>9.85042381286621</v>
+        <v>9.8504238128662092</v>
       </c>
       <c r="D49" s="4">
         <v>6.35</v>
@@ -2996,15 +3005,15 @@
         <v>882</v>
       </c>
       <c r="J49" s="6">
-        <v>97.3958636646601</v>
+        <v>97.395863664660098</v>
       </c>
       <c r="K49" s="3">
         <v>4.72900390625</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>52</v>
@@ -3037,15 +3046,15 @@
         <v>6.60986328125</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="3">
-        <v>10.7248361110687</v>
+        <v>10.724836111068701</v>
       </c>
       <c r="D51" s="4">
         <v>2.21</v>
@@ -3066,21 +3075,21 @@
         <v>1310</v>
       </c>
       <c r="J51" s="6">
-        <v>141.45494792466</v>
+        <v>141.45494792465999</v>
       </c>
       <c r="K51" s="3">
         <v>4.50048828125</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="3">
-        <v>11.2992815971375</v>
+        <v>11.299281597137499</v>
       </c>
       <c r="D52" s="4">
         <v>8.42</v>
@@ -3107,15 +3116,15 @@
         <v>7.79638671875</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="3">
-        <v>9.35251426696777</v>
+        <v>9.3525142669677699</v>
       </c>
       <c r="D53" s="4">
         <v>4.09</v>
@@ -3136,15 +3145,15 @@
         <v>416</v>
       </c>
       <c r="J53" s="6">
-        <v>46.07484870466</v>
+        <v>46.074848704659999</v>
       </c>
       <c r="K53" s="3">
         <v>6.52197265625</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>76</v>
@@ -3177,7 +3186,7 @@
         <v>8.63134765625</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>120</v>
       </c>
@@ -3206,13 +3215,13 @@
         <v>210</v>
       </c>
       <c r="J55" s="6">
-        <v>22.57626989466</v>
+        <v>22.576269894660001</v>
       </c>
       <c r="K55" s="3">
         <v>4.90673828125</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -3241,21 +3250,21 @@
         <v>637</v>
       </c>
       <c r="J56" s="6">
-        <v>65.44974921466</v>
+        <v>65.449749214660002</v>
       </c>
       <c r="K56" s="3">
         <v>7.81103515625</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" s="3">
-        <v>9.03902387619019</v>
+        <v>9.0390238761901909</v>
       </c>
       <c r="D57" s="4">
         <v>15.35</v>
@@ -3276,18 +3285,18 @@
         <v>254</v>
       </c>
       <c r="J57" s="6">
-        <v>28.87985010466</v>
+        <v>28.879850104660001</v>
       </c>
       <c r="K57" s="3">
         <v>7.48876953125</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="3">
         <v>8.6029839515686</v>
@@ -3311,18 +3320,18 @@
         <v>411</v>
       </c>
       <c r="J58" s="6">
-        <v>46.20827312466</v>
+        <v>46.208273124660003</v>
       </c>
       <c r="K58" s="3">
         <v>5.98583984375</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C59" s="3">
         <v>10.9003140926361</v>
@@ -3346,21 +3355,21 @@
         <v>535</v>
       </c>
       <c r="J59" s="6">
-        <v>58.9906996346601</v>
+        <v>58.990699634660103</v>
       </c>
       <c r="K59" s="3">
         <v>5.99853515625</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="3">
-        <v>5.21147704124451</v>
+        <v>5.2114770412445104</v>
       </c>
       <c r="D60" s="4">
         <v>18.09</v>
@@ -3381,21 +3390,21 @@
         <v>282</v>
       </c>
       <c r="J60" s="6">
-        <v>31.41369499466</v>
+        <v>31.413694994659998</v>
       </c>
       <c r="K60" s="3">
         <v>4.90673828125</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="3">
-        <v>6.00891757011414</v>
+        <v>6.0089175701141402</v>
       </c>
       <c r="D61" s="4">
         <v>3.92</v>
@@ -3416,21 +3425,21 @@
         <v>766</v>
       </c>
       <c r="J61" s="6">
-        <v>88.2224876046601</v>
+        <v>88.222487604660103</v>
       </c>
       <c r="K61" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="3">
-        <v>6.43749141693115</v>
+        <v>6.4374914169311497</v>
       </c>
       <c r="D62" s="4">
         <v>3.83</v>
@@ -3451,13 +3460,13 @@
         <v>1019</v>
       </c>
       <c r="J62" s="6">
-        <v>112.86298549466</v>
+        <v>112.86298549465999</v>
       </c>
       <c r="K62" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="3">
-        <v>6.98747825622559</v>
+        <v>6.9874782562255904</v>
       </c>
       <c r="D63" s="4">
         <v>11.01</v>
@@ -3486,15 +3495,15 @@
         <v>327</v>
       </c>
       <c r="J63" s="6">
-        <v>35.91786734466</v>
+        <v>35.917867344660003</v>
       </c>
       <c r="K63" s="3">
         <v>7.35693359375</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>85</v>
@@ -3521,21 +3530,21 @@
         <v>623</v>
       </c>
       <c r="J64" s="6">
-        <v>62.02681761466</v>
+        <v>62.026817614659997</v>
       </c>
       <c r="K64" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="3">
-        <v>6.23882079124451</v>
+        <v>6.2388207912445104</v>
       </c>
       <c r="D65" s="4">
         <v>2.82</v>
@@ -3556,21 +3565,21 @@
         <v>746</v>
       </c>
       <c r="J65" s="6">
-        <v>84.3653922946601</v>
+        <v>84.365392294660097</v>
       </c>
       <c r="K65" s="3">
         <v>5.71923828125</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C66" s="3">
-        <v>6.17013907432556</v>
+        <v>6.1701390743255597</v>
       </c>
       <c r="D66" s="4">
         <v>4.28</v>
@@ -3597,18 +3606,18 @@
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C67" s="3">
-        <v>6.05833554267883</v>
+        <v>6.0583355426788303</v>
       </c>
       <c r="D67" s="4">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E67" s="5">
         <v>1</v>
@@ -3632,15 +3641,15 @@
         <v>6.63916015625</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" s="3">
-        <v>6.49860429763794</v>
+        <v>6.4986042976379403</v>
       </c>
       <c r="D68" s="4">
         <v>1.31</v>
@@ -3667,15 +3676,15 @@
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C69" s="3">
-        <v>5.9158353805542</v>
+        <v>5.9158353805542001</v>
       </c>
       <c r="D69" s="4">
         <v>0.06</v>
@@ -3702,18 +3711,18 @@
         <v>6.35400390625</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="3">
-        <v>6.26016139984131</v>
+        <v>6.2601613998413104</v>
       </c>
       <c r="D70" s="4">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="E70" s="5">
         <v>2</v>
@@ -3731,21 +3740,21 @@
         <v>608</v>
       </c>
       <c r="J70" s="6">
-        <v>68.6477140346601</v>
+        <v>68.647714034660098</v>
       </c>
       <c r="K70" s="3">
         <v>6.07470703125</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="3">
-        <v>6.49728918075562</v>
+        <v>6.4972891807556197</v>
       </c>
       <c r="D71" s="4">
         <v>1.17</v>
@@ -3766,21 +3775,21 @@
         <v>1193</v>
       </c>
       <c r="J71" s="6">
-        <v>137.73278667466</v>
+        <v>137.73278667465999</v>
       </c>
       <c r="K71" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C72" s="3">
-        <v>5.97919964790344</v>
+        <v>5.9791996479034397</v>
       </c>
       <c r="D72" s="4">
         <v>7.88</v>
@@ -3801,13 +3810,13 @@
         <v>444</v>
       </c>
       <c r="J72" s="6">
-        <v>50.21222894466</v>
+        <v>50.212228944659998</v>
       </c>
       <c r="K72" s="3">
         <v>5.83349609375</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
@@ -3815,7 +3824,7 @@
         <v>74</v>
       </c>
       <c r="C73" s="3">
-        <v>6.32317137718201</v>
+        <v>6.3231713771820104</v>
       </c>
       <c r="D73" s="4">
         <v>5.07</v>
@@ -3842,15 +3851,15 @@
         <v>7.88427734375</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="3">
-        <v>7.91436362266541</v>
+        <v>7.9143636226654097</v>
       </c>
       <c r="D74" s="4">
         <v>18.45</v>
@@ -3871,13 +3880,13 @@
         <v>168</v>
       </c>
       <c r="J74" s="6">
-        <v>18.20908720466</v>
+        <v>18.209087204660001</v>
       </c>
       <c r="K74" s="3">
         <v>7.44482421875</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>123</v>
       </c>
@@ -3885,7 +3894,7 @@
         <v>111</v>
       </c>
       <c r="C75" s="3">
-        <v>5.20723056793213</v>
+        <v>5.2072305679321298</v>
       </c>
       <c r="D75" s="4">
         <v>7.73</v>
@@ -3906,21 +3915,21 @@
         <v>388</v>
       </c>
       <c r="J75" s="6">
-        <v>43.74374351466</v>
+        <v>43.743743514659997</v>
       </c>
       <c r="K75" s="3">
         <v>5.30029296875</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C76" s="3">
-        <v>7.60451602935791</v>
+        <v>7.6045160293579102</v>
       </c>
       <c r="D76" s="4">
         <v>3.72</v>
@@ -3941,21 +3950,21 @@
         <v>698</v>
       </c>
       <c r="J76" s="6">
-        <v>77.0136446946601</v>
+        <v>77.013644694660101</v>
       </c>
       <c r="K76" s="3">
         <v>7.29833984375</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C77" s="3">
-        <v>7.12624979019165</v>
+        <v>7.1262497901916504</v>
       </c>
       <c r="D77" s="4">
         <v>14.52</v>
@@ -3982,12 +3991,12 @@
         <v>4.77978515625</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C78" s="3">
         <v>5.76953148841858</v>
@@ -4017,15 +4026,15 @@
         <v>8.99755859375</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C79" s="3">
-        <v>7.66956257820129</v>
+        <v>7.6695625782012904</v>
       </c>
       <c r="D79" s="4">
         <v>6.56</v>
@@ -4046,21 +4055,21 @@
         <v>244</v>
       </c>
       <c r="J79" s="6">
-        <v>26.94133513466</v>
+        <v>26.941335134660001</v>
       </c>
       <c r="K79" s="3">
         <v>7.48876953125</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C80" s="3">
-        <v>7.28114199638367</v>
+        <v>7.2811419963836697</v>
       </c>
       <c r="D80" s="4">
         <v>3.65</v>
@@ -4081,21 +4090,21 @@
         <v>438</v>
       </c>
       <c r="J80" s="6">
-        <v>48.90692229466</v>
+        <v>48.906922294659999</v>
       </c>
       <c r="K80" s="3">
         <v>5.35107421875</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C81" s="3">
-        <v>6.53402471542358</v>
+        <v>6.5340247154235804</v>
       </c>
       <c r="D81" s="4">
         <v>17.39</v>
@@ -4116,13 +4125,13 @@
         <v>161</v>
       </c>
       <c r="J81" s="6">
-        <v>17.38385502466</v>
+        <v>17.383855024660001</v>
       </c>
       <c r="K81" s="3">
         <v>5.07177734375</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>128</v>
       </c>
@@ -4130,7 +4139,7 @@
         <v>20</v>
       </c>
       <c r="C82" s="3">
-        <v>2.66947793960571</v>
+        <v>2.6694779396057098</v>
       </c>
       <c r="D82" s="4">
         <v>7.46</v>
@@ -4151,24 +4160,24 @@
         <v>201</v>
       </c>
       <c r="J82" s="6">
-        <v>23.49676024466</v>
+        <v>23.496760244659999</v>
       </c>
       <c r="K82" s="3">
         <v>5.02099609375</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C83" s="3">
-        <v>2.84912657737732</v>
+        <v>2.8491265773773198</v>
       </c>
       <c r="D83" s="4">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E83" s="5">
         <v>1</v>
@@ -4192,18 +4201,18 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="3">
-        <v>3.33674955368042</v>
+        <v>3.3367495536804199</v>
       </c>
       <c r="D84" s="4">
-        <v>9.38</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E84" s="5">
         <v>1</v>
@@ -4221,15 +4230,15 @@
         <v>128</v>
       </c>
       <c r="J84" s="6">
-        <v>14.16779357466</v>
+        <v>14.167793574659999</v>
       </c>
       <c r="K84" s="3">
         <v>6.48095703125</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>53</v>
@@ -4256,21 +4265,21 @@
         <v>526</v>
       </c>
       <c r="J85" s="6">
-        <v>57.5247133146601</v>
+        <v>57.524713314660097</v>
       </c>
       <c r="K85" s="3">
         <v>5.97314453125</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="3">
-        <v>4.26253938674927</v>
+        <v>4.2625393867492702</v>
       </c>
       <c r="D86" s="4">
         <v>6.1</v>
@@ -4291,18 +4300,18 @@
         <v>344</v>
       </c>
       <c r="J86" s="6">
-        <v>37.17169005466</v>
+        <v>37.171690054659997</v>
       </c>
       <c r="K86" s="3">
         <v>5.82080078125</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" s="3">
         <v>3.61071848869324</v>
@@ -4326,21 +4335,21 @@
         <v>537</v>
       </c>
       <c r="J87" s="6">
-        <v>59.4416534646601</v>
+        <v>59.441653464660099</v>
       </c>
       <c r="K87" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="3">
-        <v>2.56134986877441</v>
+        <v>2.5613498687744101</v>
       </c>
       <c r="D88" s="4">
         <v>3.69</v>
@@ -4361,21 +4370,21 @@
         <v>379</v>
       </c>
       <c r="J88" s="6">
-        <v>42.71470438466</v>
+        <v>42.714704384660003</v>
       </c>
       <c r="K88" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="3">
-        <v>3.34126091003418</v>
+        <v>3.3412609100341801</v>
       </c>
       <c r="D89" s="4">
         <v>7.58</v>
@@ -4396,18 +4405,18 @@
         <v>198</v>
       </c>
       <c r="J89" s="6">
-        <v>22.57371707466</v>
+        <v>22.573717074659999</v>
       </c>
       <c r="K89" s="3">
         <v>8.90966796875</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C90" s="3">
         <v>3.67385649681091</v>
@@ -4437,15 +4446,15 @@
         <v>6.12548828125</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C91" s="3">
-        <v>4.31505680084229</v>
+        <v>4.3150568008422896</v>
       </c>
       <c r="D91" s="4">
         <v>2.38</v>
@@ -4466,24 +4475,24 @@
         <v>673</v>
       </c>
       <c r="J91" s="6">
-        <v>71.6675204746602</v>
+        <v>71.667520474660193</v>
       </c>
       <c r="K91" s="3">
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" s="3">
         <v>3.51061987876892</v>
       </c>
       <c r="D92" s="4">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E92" s="5">
         <v>3</v>
@@ -4501,24 +4510,24 @@
         <v>274</v>
       </c>
       <c r="J92" s="6">
-        <v>30.69950158466</v>
+        <v>30.699501584659998</v>
       </c>
       <c r="K92" s="3">
         <v>5.79541015625</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C93" s="3">
-        <v>4.42237186431885</v>
+        <v>4.4223718643188503</v>
       </c>
       <c r="D93" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E93" s="5">
         <v>1</v>
@@ -4536,15 +4545,15 @@
         <v>5654</v>
       </c>
       <c r="J93" s="6">
-        <v>585.198720194676</v>
+        <v>585.19872019467596</v>
       </c>
       <c r="K93" s="3">
         <v>7.02001953125</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>84</v>
@@ -4571,21 +4580,21 @@
         <v>531</v>
       </c>
       <c r="J94" s="6">
-        <v>58.8496618646601</v>
+        <v>58.849661864660099</v>
       </c>
       <c r="K94" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C95" s="3">
-        <v>2.67306566238403</v>
+        <v>2.6730656623840301</v>
       </c>
       <c r="D95" s="4">
         <v>6.15</v>
@@ -4606,18 +4615,18 @@
         <v>260</v>
       </c>
       <c r="J95" s="6">
-        <v>29.39279054466</v>
+        <v>29.392790544659999</v>
       </c>
       <c r="K95" s="3">
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C96" s="3">
         <v>4.53906297683716</v>
@@ -4641,21 +4650,21 @@
         <v>231</v>
       </c>
       <c r="J96" s="6">
-        <v>24.39380627466</v>
+        <v>24.393806274660001</v>
       </c>
       <c r="K96" s="3">
         <v>7.18115234375</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="3">
-        <v>3.29349517822266</v>
+        <v>3.2934951782226598</v>
       </c>
       <c r="D97" s="4">
         <v>2.78</v>
@@ -4676,21 +4685,21 @@
         <v>396</v>
       </c>
       <c r="J97" s="6">
-        <v>43.36038218466</v>
+        <v>43.360382184659997</v>
       </c>
       <c r="K97" s="3">
         <v>5.70654296875</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="3">
-        <v>3.31080007553101</v>
+        <v>3.3108000755310099</v>
       </c>
       <c r="D98" s="4">
         <v>0.99</v>
@@ -4711,21 +4720,21 @@
         <v>1510</v>
       </c>
       <c r="J98" s="6">
-        <v>167.47033842466</v>
+        <v>167.47033842466001</v>
       </c>
       <c r="K98" s="3">
         <v>6.02392578125</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C99" s="3">
-        <v>3.57306146621704</v>
+        <v>3.5730614662170401</v>
       </c>
       <c r="D99" s="4">
         <v>5.94</v>
@@ -4746,21 +4755,21 @@
         <v>202</v>
       </c>
       <c r="J99" s="6">
-        <v>23.16764947466</v>
+        <v>23.167649474659999</v>
       </c>
       <c r="K99" s="3">
         <v>5.87158203125</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="3">
-        <v>3.03063035011292</v>
+        <v>3.0306303501129199</v>
       </c>
       <c r="D100" s="4">
         <v>2.8</v>
@@ -4781,15 +4790,15 @@
         <v>535</v>
       </c>
       <c r="J100" s="6">
-        <v>59.6093972446601</v>
+        <v>59.609397244660101</v>
       </c>
       <c r="K100" s="3">
         <v>5.90966796875</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>39</v>
@@ -4816,13 +4825,13 @@
         <v>488</v>
       </c>
       <c r="J101" s="6">
-        <v>55.1451620346601</v>
+        <v>55.145162034660103</v>
       </c>
       <c r="K101" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="3">
-        <v>3.00988578796387</v>
+        <v>3.0098857879638699</v>
       </c>
       <c r="D102" s="4">
         <v>1.3</v>
@@ -4857,9 +4866,9 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>34</v>
@@ -4886,15 +4895,15 @@
         <v>169</v>
       </c>
       <c r="J103" s="6">
-        <v>18.56653374466</v>
+        <v>18.566533744659999</v>
       </c>
       <c r="K103" s="3">
         <v>8.23583984375</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>35</v>
@@ -4921,21 +4930,21 @@
         <v>150</v>
       </c>
       <c r="J104" s="6">
-        <v>16.42430532466</v>
+        <v>16.424305324660001</v>
       </c>
       <c r="K104" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C105" s="3">
-        <v>3.31883430480957</v>
+        <v>3.3188343048095699</v>
       </c>
       <c r="D105" s="4">
         <v>10.4</v>
@@ -4962,7 +4971,7 @@
         <v>7.66455078125</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>103</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>57</v>
       </c>
       <c r="C106" s="3">
-        <v>3.49049139022827</v>
+        <v>3.4904913902282702</v>
       </c>
       <c r="D106" s="4">
         <v>5.84</v>
@@ -4997,7 +5006,7 @@
         <v>6.12548828125</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -5005,7 +5014,7 @@
         <v>67</v>
       </c>
       <c r="C107" s="3">
-        <v>3.59135389328003</v>
+        <v>3.5913538932800302</v>
       </c>
       <c r="D107" s="4">
         <v>1.99</v>
@@ -5026,21 +5035,21 @@
         <v>704</v>
       </c>
       <c r="J107" s="6">
-        <v>78.08553348466</v>
+        <v>78.085533484660004</v>
       </c>
       <c r="K107" s="3">
         <v>5.08447265625</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C108" s="3">
-        <v>3.01250243186951</v>
+        <v>3.0125024318695099</v>
       </c>
       <c r="D108" s="4">
         <v>0.52</v>
@@ -5061,15 +5070,15 @@
         <v>2478</v>
       </c>
       <c r="J108" s="6">
-        <v>271.983468914661</v>
+        <v>271.98346891466099</v>
       </c>
       <c r="K108" s="3">
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>73</v>
@@ -5096,15 +5105,15 @@
         <v>123</v>
       </c>
       <c r="J109" s="6">
-        <v>12.95777325466</v>
+        <v>12.957773254659999</v>
       </c>
       <c r="K109" s="3">
         <v>8.44091796875</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>75</v>
@@ -5137,15 +5146,15 @@
         <v>8.44091796875</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C111" s="3">
-        <v>2.67255616188049</v>
+        <v>2.6725561618804901</v>
       </c>
       <c r="D111" s="4">
         <v>25.24</v>
@@ -5172,15 +5181,15 @@
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="3">
-        <v>3.33560824394226</v>
+        <v>3.3356082439422599</v>
       </c>
       <c r="D112" s="4">
         <v>2.84</v>
@@ -5201,13 +5210,13 @@
         <v>563</v>
       </c>
       <c r="J112" s="6">
-        <v>61.1618904246601</v>
+        <v>61.161890424660101</v>
       </c>
       <c r="K112" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>36</v>
       </c>
@@ -5236,21 +5245,21 @@
         <v>154</v>
       </c>
       <c r="J113" s="6">
-        <v>16.94482729466</v>
+        <v>16.944827294660001</v>
       </c>
       <c r="K113" s="3">
         <v>7.82568359375</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="3">
-        <v>3.68353509902954</v>
+        <v>3.6835350990295401</v>
       </c>
       <c r="D114" s="4">
         <v>3.68</v>
@@ -5271,21 +5280,21 @@
         <v>299</v>
       </c>
       <c r="J114" s="6">
-        <v>33.20854804466</v>
+        <v>33.208548044659999</v>
       </c>
       <c r="K114" s="3">
         <v>6.07470703125</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C115" s="3">
-        <v>2.4453604221344</v>
+        <v>2.4453604221343999</v>
       </c>
       <c r="D115" s="4">
         <v>15.58</v>
@@ -5312,15 +5321,15 @@
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C116" s="3">
-        <v>2.48736333847046</v>
+        <v>2.4873633384704599</v>
       </c>
       <c r="D116" s="4">
         <v>7.35</v>
@@ -5341,21 +5350,21 @@
         <v>245</v>
       </c>
       <c r="J116" s="6">
-        <v>25.68989389466</v>
+        <v>25.689893894659999</v>
       </c>
       <c r="K116" s="3">
         <v>5.05908203125</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C117" s="3">
-        <v>3.10195636749268</v>
+        <v>3.1019563674926798</v>
       </c>
       <c r="D117" s="4">
         <v>6.31</v>
@@ -5376,21 +5385,21 @@
         <v>206</v>
       </c>
       <c r="J117" s="6">
-        <v>21.86424645466</v>
+        <v>21.864246454660002</v>
       </c>
       <c r="K117" s="3">
         <v>5.38916015625</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C118" s="3">
-        <v>3.64821696281433</v>
+        <v>3.6482169628143302</v>
       </c>
       <c r="D118" s="4">
         <v>8.1</v>
@@ -5411,21 +5420,21 @@
         <v>247</v>
       </c>
       <c r="J118" s="6">
-        <v>26.40583207466</v>
+        <v>26.405832074660001</v>
       </c>
       <c r="K118" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="3">
-        <v>4.03184509277344</v>
+        <v>4.0318450927734402</v>
       </c>
       <c r="D119" s="4">
         <v>2.56</v>
@@ -5446,15 +5455,15 @@
         <v>508</v>
       </c>
       <c r="J119" s="6">
-        <v>57.64435765466</v>
+        <v>57.644357654659999</v>
       </c>
       <c r="K119" s="3">
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>100</v>
@@ -5487,15 +5496,15 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="3">
-        <v>2.97614145278931</v>
+        <v>2.9761414527893102</v>
       </c>
       <c r="D121" s="4">
         <v>4.26</v>
@@ -5522,15 +5531,15 @@
         <v>4.98291015625</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C122" s="3">
-        <v>3.75301361083984</v>
+        <v>3.7530136108398402</v>
       </c>
       <c r="D122" s="4">
         <v>6.44</v>
@@ -5551,13 +5560,13 @@
         <v>202</v>
       </c>
       <c r="J122" s="6">
-        <v>20.68219082466</v>
+        <v>20.682190824660001</v>
       </c>
       <c r="K122" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>7</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>91</v>
       </c>
       <c r="C123" s="3">
-        <v>2.94047403335571</v>
+        <v>2.9404740333557098</v>
       </c>
       <c r="D123" s="4">
         <v>5.2</v>
@@ -5586,13 +5595,13 @@
         <v>327</v>
       </c>
       <c r="J123" s="6">
-        <v>34.99334091466</v>
+        <v>34.993340914660003</v>
       </c>
       <c r="K123" s="3">
         <v>6.01123046875</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>105</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>47</v>
       </c>
       <c r="C124" s="3">
-        <v>4.19300365447998</v>
+        <v>4.1930036544799796</v>
       </c>
       <c r="D124" s="4">
         <v>12.58</v>
@@ -5627,15 +5636,15 @@
         <v>4.97021484375</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C125" s="3">
-        <v>2.89691638946533</v>
+        <v>2.8969163894653298</v>
       </c>
       <c r="D125" s="4">
         <v>12.58</v>
@@ -5662,9 +5671,9 @@
         <v>4.97021484375</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>63</v>
@@ -5691,17 +5700,13 @@
         <v>326</v>
       </c>
       <c r="J126" s="6">
-        <v>34.56353643466</v>
+        <v>34.563536434660001</v>
       </c>
       <c r="K126" s="3">
         <v>7.89892578125</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup/>
-  <headerFooter/>
 </worksheet>
 </file>